--- a/stock_historical_data/1wk/TATAELXSI.NS.xlsx
+++ b/stock_historical_data/1wk/TATAELXSI.NS.xlsx
@@ -64589,7 +64589,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATAELXSI.NS.xlsx
+++ b/stock_historical_data/1wk/TATAELXSI.NS.xlsx
@@ -61205,7 +61205,9 @@
       <c r="P1146" t="n">
         <v>0</v>
       </c>
-      <c r="Q1146" t="inlineStr"/>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATAELXSI.NS.xlsx
+++ b/stock_historical_data/1wk/TATAELXSI.NS.xlsx
@@ -64701,7 +64701,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATAELXSI.NS.xlsx
+++ b/stock_historical_data/1wk/TATAELXSI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1147"/>
+  <dimension ref="A1:R1149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64705,6 +64705,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>7268</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>7362.5</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>7077.10009765625</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>7120.60009765625</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>7051.8564453125</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>394692</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>7161.89990234375</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>7349.7998046875</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>6966</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>7001.39990234375</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>7001.39990234375</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>713507</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/TATAELXSI.NS.xlsx
+++ b/stock_historical_data/1wk/TATAELXSI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1149"/>
+  <dimension ref="A1:R1175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -64637,7 +64637,7 @@
         <v>23</v>
       </c>
       <c r="O1146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1146" t="n">
         <v>0</v>
@@ -64757,7 +64757,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64811,7 +64813,1361 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>7001.39990234375</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>7127.75</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>6980</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>7054.4501953125</v>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="n">
+        <v>405405</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>7061</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>7175</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>6931.35009765625</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>7065.5498046875</v>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="n">
+        <v>1073776</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>7079</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>7103.7998046875</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>6942</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>6980.5498046875</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>362126</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>6978.9501953125</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>7069.14990234375</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>6852</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>6961.60009765625</v>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="n">
+        <v>453784</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>6975</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>7011.85009765625</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>6890.0498046875</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>6911.0498046875</v>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="n">
+        <v>304300</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>6831.2001953125</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>6899.89990234375</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>6666</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>6875.75</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>358940</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>6875.75</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>6888</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>6724.64990234375</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>6799.64990234375</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>234065</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>6799.64990234375</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>7139</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>6780</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>7088.14990234375</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>546618</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>7149</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>9080</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>7103</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>8000.7001953125</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>12098917</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>8009</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>8050</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>7567.10009765625</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>7589.4501953125</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>1248625</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>7590</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>8024</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>7490</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>7714.89990234375</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>1490515</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>7750</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>7939</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>7496.7001953125</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>7859.39990234375</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>818530</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>7885.0498046875</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>8142.14990234375</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>7600</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>7811.39990234375</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>1107017</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>7780</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>7807.9501953125</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>7451</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>7576.10009765625</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>476841</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>7580</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>8027</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>7352</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>7675.14990234375</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>1624637</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>7728.39990234375</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>7749</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>7275</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>7328.7001953125</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>674749</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>7365</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>7485</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>6870.60009765625</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>6990.64990234375</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>773240</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>7068</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>7134</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>6969</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>7107.5</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>317745</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>7146.9501953125</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>7390</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>6821.64990234375</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>6940.7998046875</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>464521</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>6940.7998046875</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>7011.0498046875</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>6338.2001953125</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>6374.5498046875</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>1454666</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>6405.0498046875</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>6620</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>6286</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>6586.4501953125</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>589771</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>6690</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>6879</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>6610.14990234375</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>6670.75</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>706862</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>6670.75</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>7474</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>6613</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>7396.4501953125</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>2148940</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>7400</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>7460</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>7211.9501953125</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>7364.39990234375</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>819970</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>7372.5</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>7424.35009765625</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>6900</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>6921.60009765625</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>765032</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>7037.7001953125</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>7037.7001953125</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>6764.39990234375</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>6886.35009765625</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>476300</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATAELXSI.NS.xlsx
+++ b/stock_historical_data/1wk/TATAELXSI.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1175"/>
+  <dimension ref="A1:R1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64867,7 +64867,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64919,7 +64921,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64971,7 +64975,9 @@
       <c r="Q1152" t="n">
         <v>1</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -65023,7 +65029,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65075,7 +65083,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65127,7 +65137,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65179,7 +65191,9 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
@@ -65231,7 +65245,9 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
@@ -65283,7 +65299,9 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
@@ -65335,7 +65353,9 @@
       <c r="Q1159" t="n">
         <v>0</v>
       </c>
-      <c r="R1159" t="inlineStr"/>
+      <c r="R1159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
@@ -65387,7 +65407,9 @@
       <c r="Q1160" t="n">
         <v>0</v>
       </c>
-      <c r="R1160" t="inlineStr"/>
+      <c r="R1160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
@@ -65439,7 +65461,9 @@
       <c r="Q1161" t="n">
         <v>1</v>
       </c>
-      <c r="R1161" t="inlineStr"/>
+      <c r="R1161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
@@ -65491,7 +65515,9 @@
       <c r="Q1162" t="n">
         <v>0</v>
       </c>
-      <c r="R1162" t="inlineStr"/>
+      <c r="R1162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
@@ -65543,7 +65569,9 @@
       <c r="Q1163" t="n">
         <v>0</v>
       </c>
-      <c r="R1163" t="inlineStr"/>
+      <c r="R1163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
@@ -65595,7 +65623,9 @@
       <c r="Q1164" t="n">
         <v>2</v>
       </c>
-      <c r="R1164" t="inlineStr"/>
+      <c r="R1164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
@@ -65647,7 +65677,9 @@
       <c r="Q1165" t="n">
         <v>0</v>
       </c>
-      <c r="R1165" t="inlineStr"/>
+      <c r="R1165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
@@ -65699,7 +65731,9 @@
       <c r="Q1166" t="n">
         <v>0</v>
       </c>
-      <c r="R1166" t="inlineStr"/>
+      <c r="R1166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
@@ -65751,7 +65785,9 @@
       <c r="Q1167" t="n">
         <v>0</v>
       </c>
-      <c r="R1167" t="inlineStr"/>
+      <c r="R1167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
@@ -65803,7 +65839,9 @@
       <c r="Q1168" t="n">
         <v>0</v>
       </c>
-      <c r="R1168" t="inlineStr"/>
+      <c r="R1168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
@@ -65855,7 +65893,9 @@
       <c r="Q1169" t="n">
         <v>0</v>
       </c>
-      <c r="R1169" t="inlineStr"/>
+      <c r="R1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -65907,7 +65947,9 @@
       <c r="Q1170" t="n">
         <v>0</v>
       </c>
-      <c r="R1170" t="inlineStr"/>
+      <c r="R1170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
@@ -65959,7 +66001,9 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
@@ -66003,7 +66047,7 @@
         <v>49</v>
       </c>
       <c r="O1172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1172" t="n">
         <v>0</v>
@@ -66011,7 +66055,9 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
@@ -66063,7 +66109,9 @@
       <c r="Q1173" t="n">
         <v>0</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
@@ -66115,7 +66163,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -66167,7 +66217,685 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>6881</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>6965.7001953125</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>6508.2001953125</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>6647.5498046875</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>916617</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>6690</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>6710.89990234375</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>5921</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>6000.60009765625</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>2543382</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>5975</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>6250.85009765625</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>5920</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>6212.10009765625</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>994809</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>6218</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>6425</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>6060.7001953125</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>6372.7001953125</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>634400</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>6319.9501953125</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>6400</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>6078.0498046875</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>6381.25</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>794426</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>6330</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>6478.14990234375</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>6250.7001953125</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>6436.60009765625</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>372437</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>6415</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>6425</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>6032.5</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>6174</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>557897</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>6156</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>6176.35009765625</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>5931.0498046875</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>5960.4501953125</v>
+      </c>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="n">
+        <v>487123</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>5960.4501953125</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>5960.4501953125</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>5302.5498046875</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>5411.10009765625</v>
+      </c>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="n">
+        <v>834283</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>5416.0498046875</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>5694.35009765625</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>5350</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>5624.14990234375</v>
+      </c>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="n">
+        <v>664525</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>5659</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>5689</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>5225</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>5236.75</v>
+      </c>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="n">
+        <v>500778</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>5236.75</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>5512</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>5157.7001953125</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>5462.9501953125</v>
+      </c>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="n">
+        <v>715555</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>5470</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>5742.9501953125</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>5200</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>5214.60009765625</v>
+      </c>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="n">
+        <v>1727477</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
